--- a/doc/student.xlsx
+++ b/doc/student.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>年级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>郭登高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -83,28 +87,212 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>郭德纲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>我嘞个去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇塞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵子龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关云长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>张飞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>土木工程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>城市建设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>博士研究生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>体育硕士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>港澳台博士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留学生硕士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留学生博士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789871</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>231231233</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>32311827</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>233123123</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>31111</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>111111112</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>周润发</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想的么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇哈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周润发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业2</t>
+  </si>
+  <si>
+    <t>专业3</t>
+  </si>
+  <si>
+    <t>专业4</t>
+  </si>
+  <si>
+    <t>专业5</t>
+  </si>
+  <si>
+    <t>专业6</t>
+  </si>
+  <si>
+    <t>专业7</t>
+  </si>
+  <si>
+    <t>专业8</t>
   </si>
 </sst>
 </file>
@@ -164,8 +352,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -182,8 +373,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,96 +679,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Simple"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>123287</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="6">
+        <v>32012929291</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="4">
+        <v>322332</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5">
-        <v>32012929291</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6">
+        <v>23231123121</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="4">
+        <v>223232</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="4">
+        <v>323211</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="4">
+        <v>223</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2398198</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123347</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>2011</v>
       </c>
-      <c r="B3" s="3">
-        <v>322332</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B9" s="4">
+        <v>1233</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5">
-        <v>23231123121</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+      <c r="H9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/student.xlsx
+++ b/doc/student.xlsx
@@ -274,25 +274,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>专业2</t>
-  </si>
-  <si>
     <t>专业3</t>
   </si>
   <si>
-    <t>专业4</t>
-  </si>
-  <si>
-    <t>专业5</t>
-  </si>
-  <si>
-    <t>专业6</t>
-  </si>
-  <si>
-    <t>专业7</t>
-  </si>
-  <si>
     <t>专业8</t>
+  </si>
+  <si>
+    <t>专业1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -682,7 +687,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -793,7 +798,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
@@ -822,7 +827,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
@@ -851,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>24</v>
@@ -880,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
@@ -909,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>26</v>
@@ -938,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>27</v>
